--- a/500all/speech_level/speeches_CHRG-114hhrg20874.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20874.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412624</t>
   </si>
   <si>
-    <t>Barry Loudermilk</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Loudermilk. The Subcommittee on Oversight will come to order.    Without objection, the Chair is authorized to declare a recess of the Subcommittee at any time.    Welcome to today's hearing entitled ``FDIC Data Breaches: Can Americans Trust That Their Private Banking Information is Secure?''    I recognize myself for five minutes for an opening statement.    Good morning. We're here today to learn more about cybersecurity breaches at the Federal Deposit Insurance Corporation. As a former information systems technology company owner for over 20 years, I know firsthand the importance of safeguarding sensitive information and private customer data. Regrettably, the American people have good reason to question whether their private banking information is properly secured by the FDIC.    The FDIC is an independent agency established by Congress, with the mission ``to maintain stability and public confidence in the nation's financial system.'' Unfortunately, the FDIC is failing to live up to its mission of maintaining public confidence in the Nation's financial system because the Agency is failing to safeguard private banking information for millions of Americans who rely on FDIC.    During the Committee's current investigation, it has become clear that FDIC has a long history of cybersecurity incidents. According to information obtained by the Committee, in 2011, a foreign government hacked into the workstations of the former FDIC Chairman and other senior officials. It appears that this entity had access to senior officials' workstations for at least one year before the FDIC took remedial action.    More recently, in letters dated February 26, 2016, and March 18, 2016, FDIC notified the Science Committee of two major security incidents. This notification to the Committee was required in accordance with the Federal Information Security Modernization Act of 2014, otherwise known as FISMA, and Office of Management and Budget guidelines that require executive branch departments and agencies to report major security incidents to Congress within seven days.    The security breach reported in FDIC's February 26 letter to the Committee involved an FDIC employee who copied sensitive personally identifiable information, or PII, over 10,000 individuals onto a portable storage device prior to separating from employment at the FDIC. The employee also downloaded suspicious activity reports, bank currency transaction reports, customer data reports and a small subset of personal work and tax files. This security incident is particularly troublesome, given that the FDIC did not ultimately recover the portable storage device from the former employee until nearly two months after the device was removed from FDIC premises.    Further, according to the information obtained by the Committee, the FDIC did not report the incident to Congress within the seven-day time period as required by FISMA. In fact, FDIC waited for over four months to report the incident to Congress and only did so after being prompted by the FDIC Office of Inspector General.    Just as troubling, FDIC continues to maintain that the employee ``accidently'' copied sensitive and proprietary information to a portable storage device, despite the fact that the employee initially told the agency that she ``would never do such a thing,'' and even denied ever owning a portable storage device. Ultimately, she retained legal counsel, who engaged in protracted negotiations with the agency for the return of the device.    The second security breach reported to the Committee was on March 18, 2016, involved a disgruntled FDIC employee who obtained sensitive data for over 44,000 individuals prior to separating from employment at the agency. When the employee left the FDIC on February 26, 2016, the employee took the storage device from the premises. Upon learning of the incident three days later, FDIC personnel worked to recover the device. The device was ultimately recovered on March 1, 2016. According to the FDIC, this was just another case of an employee ``accidently'' leaving the agency with sensitive information.    This week, FDIC retroactively reported five additional major breaches to the Committee. In one of those instances, an employee retired from FDIC and took three portable storage devices containing over 49,000 individuals' personal data. In total, over 160,000 individuals have recently been a victim of having their personal information leave the FDIC by ``accident.'' To date, FDIC has failed to notify any of those individuals that their private information may have been compromised.    According to the FDIC, none of the 160,000 individuals has anything to worry about because all of the FDIC employees who improperly walked out of the agency with sensitive information were required to sign affidavits stating the information was not disseminated. At best, this is a misleading statement because apparently all employees who are separating from the FDIC are generally required to sign an exit document attesting that they have not removed any FDIC materials from the premises. In the recent breaches reported to this Committee, all employees who improperly took the data should have already signed exit documents before ever leaving the agency.    It is Congress's responsibility to shine a light on FDIC's history of cybersecurity breaches. The Committee will continue its oversight of FDIC failures to secure Americans' sensitive information from apparent foreign entities and disgruntled FDIC employees.    I thank the witnesses for being here today and sincerely hope that we are able to get answers from the FDIC here this morning.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412657</t>
   </si>
   <si>
-    <t>Donald S. Beyer, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Chairman Loudermilk, and I appreciate your extensive detailing of these breaches.    Defending against cyber threats is a persistent and evolving battle, and the cyber hazards that confront the public and private sectors come in various forms. Hackers can and have wreaked havoc on Hollywood studios, global financial institutions, retail outlets, and public agencies alike, and no one seems immune from the various cyber threats that touch virtually everyone.    Please forgive a certain amount of redundancy in my statement. It's important that we have both parties on record here.    In case of the Federal Deposit Insurance Corporation, they suffered from seven major cyber incidents in the past 7 months, and these breaches include plugging removable media such as a USB drive into an FDIC computer and removing thousands of sensitive financial and other records from the agency as employees walked out the door. We'll be focusing on two of these breaches today, as well as the FDIC's cybersecurity practices.    I'm glad the FDIC has installed new software that allowed them to identify these recent breaches and respond to them. Without that technology, known as data loss prevention tool, these incidents, whether inadvertent or intentional, would have gone unnoticed and unaddressed, and we in Congress would have remained uninformed. And I believe the FDIC Chairman has taken some positive steps in the wake of these breaches, phasing out the use of removable media such as flash drives and CDs that pose increased security risks.    However, I, along with our Chairman, do have questions about why there was such a long delay in notifying Congress about major cyber incidents, particularly the one that occurred last October and was not reported to Congress until February 26, 2016. And in that instance, it took a memo from the FDIC Inspector General's Office to the FDIC CIO reminding the agency that they had an obligation to report the incident to Congress.    I would add that the IG was not the only one suggesting the FDIC notify Congress of the incident. It's my understanding that other FDIC employees had also recommended reporting this to Congress earlier.    In addition, I believe that the new OMB guidance on federal information security and privacy management requirements, as detailed in the OMB memo 16-03 last October, is very clear. If it takes 8 hours or more to recover sensitive data that comprises 10,000 or more records or affects 10,000 or more people, it is considered a major cyber incident.    Under these guidelines, once an agency is aware that a breach meets that criteria, the incident should be considered a major breach and must be reported to Congress within 7 days. This did not happen in either of the two cases this hearing will focus on or the other five that the FDIC just reported to the Committee this week, and I'm still unclear why.    In the October incident, the breach included records from eight banks, more than 40,000 individuals, and 30,000 entities, including the sensitive bank currency transaction reports and Social Security numbers. Despite the OMB requirement that agencies inform Congress of major incidents within 7 days, FDIC notified Congress nearly 3 months after it had enough data to determine that this was a major breach.    I hope that Mr. Gross, the Chief Information Officer at FDIC, can help explain FDIC's decision to delay notifying Congress in that October incident, and I hope also that you'll be able to help us understand the agency's characterization of the incident, which appears to be at odds with some of the information obtained by the Committee. I know the Inspector General has looked at the October incident and the FDIC's response, so I look forward to Mr. Gibson's testimony as well.    As a business owner, we have a very important responsibility to protect our customer data, which includes Social Security numbers, cell phones, emails, personal addresses, and we do all we can to protect them, especially when an employee leaves, because we know that this has value to the employee in a different role. And we're just a business. We're not the government controlling these really sensitive government records. So this is a very important issue.    And, Mr. Gross, I understand you just arrived at the FDIC in November, and the CIO's office has suffered from a lack of consistent leadership. You're the fourth CIO in the last four years. I hope that you'll be able to bring some stability to this office, and equally important is I hope that you'll help us establish a solid foundation of reliability and openness with Congress and that you'll strive to do that as well.    So thank you both for being with us today, and we look forward to the questioning.    Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Mr. Chairman. And I appreciate both your comments and the Ranking Member's comments as well.    The recent cybersecurity breaches experienced by the FDIC date back to October 2015 and compromise nearly 160,000 individuals' sensitive information or personally identifiable information. The number of individuals whose information was compromised by the agency's poor cybersecurity posture could be much higher. The breaches reported to Congress represent only those that the agency itself called ``major.'' In reality, the FDIC likely has experienced additional breaches deemed insufficient by the agency to warrant reporting to Congress.    On April 8, 2016, the Committee sent a letter to the FDIC about a February 2016 cyber breach. In that case, more than 44,000 individuals' sensitive information was breached. Less than two weeks later, the Committee sent an additional letter to the FDIC concerning an earlier breach in October 2015, which compromised more than 10,000 individuals' sensitive information. The Committee sent the additional letter to the FDIC because the FDIC withheld reporting the breach to Congress for more than four months. In fact, the FDIC only reported the breach once the Office of Inspector General urged it to do so.    The FDIC's attempts to shield information from Congress did not end with its hesitation to report the significant October breach. The Committee has encountered a pattern of obstruction from the FDIC when responding to Committee requests.    In the FDIC's response to the Committee's letters, the agency initially produced documents extensively redacted for information the agency deemed to be confidential. These redactions included public information, such as the names of senior-level agency employees, whose identities were already known to the Committee.    The FDIC failed to provide statutory authority or a valid privilege for redacting the information. Still, the agency resisted the Committee's request for unredacted documents until faced with the threat of the Committee's use of the compulsory process to obtain the information.    Additionally, the Committee learned that the agency actively obstructed the Committee's ongoing investigation by limiting the scope of documents produced in response to the Committee's requests. The FDIC responded to the Committee's second letter and certified that it produced all responsive documents. However, subsequent discussions with the Office of Inspector General indicated that responsive documents were withheld by the agency.    Upon learning of the agency's active obstruction, the Committee wrote to the Office of Inspector General to request these documents. If not for the Office of Inspector General's openness and transparency with the Committee, we would not have been aware of the Agency's attempts to avoid providing a full and complete response to the Committee.    The FDIC's repeated efforts to conceal information from Congress are inexcusable. They raise significant questions about whether the Agency actively attempts to hide potentially incriminating information from Congress. As an agency that has faced repeated security breaches, it should focus its resources on reforming its internal cybersecurity mechanisms instead of engaging in efforts to conceal information from this Committee.    The Committee will continue to investigate the shortfalls in the FDIC's cybersecurity posture and why the Agency continues to withhold certain information from Congress and this Committee. We also will hear what measures the Agency should take to remediate the damage to the tens of thousands of Americans' whose information was compromised.    So, Mr. Chairman, we have a lot to learn this morning and look forward to the testimony of our two witnesses, and I yield back.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>412199</t>
   </si>
   <si>
-    <t>Henry C. "Hank" Johnson, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Johnson. Thank you very much, Chairman Loudermilk, and thanks to you, our witnesses, for being here today.    All data breaches that expose sensitive personal information should be taken very seriously. In today's digital age, our sensitive personal data is everywhere. When we swipe our credit cards at the grocery store, renew our driver's license at the Department of Motor Vehicles and passports at the Department of State, or visit the emergency room at the local hospital or the bank around the corner, our sensitive, personal, and financial data is processed, stored, and entrusted to those entities to safeguard it and ensure that it is not inadvertently breached or intentionally stolen.    But that has happened seven times in the past 7 months in major cyber breaches at the Federal Deposit Insurance Corporation. None of these breaches were the result of sophisticated hackers, foreign adversaries, or cyber criminals. And those that downloaded this data, including Social Security numbers and suspicious activity reports, did not use high-tech digital tools. They simply plugged in their thumb drives and other removable media to their FDIC workstations in that office and downloaded sensitive, personal, and financial data onto their personal storage devices. These actions jeopardized the data security of thousands of individuals, multiple banks, and potentially criminal investigations.    In virtually every--each of these seven instances the FDIC has said the sensitive data was inadvertently downloaded and that there was no malicious intent. In all of these cases the FDIC was able to recover the data, and the former FDIC employees signed affidavits saying they had not shared the data with others.    However, in at least one case, according to FDIC's own records, a former employee who downloaded such data was evasive about her actions and not cooperative when initially confronted by FDIC staff. Some FDIC employees also suggest that it was highly improbable that this former employee's actions were accidental.    In addition, this former employee is now working for a U.S. subsidiary of a non-U.S. financial services company, which raises additional concerns. I would remind FDIC that in 2013 an Inspector General review of another much more serious cyber accident at the agency resulted in one senior official in the CIO's office leaving the agency and another being demoted.    My understanding is that this response by these former officials to both the Chairman of the FDIC and the IG's office and the Government Accountability Office lacked candor in both of their descriptions of the extent of this penetration and potential consequences to the agency.    I hope IG's office will be able to clarify whether or not all of the recent data breaches were inadvertent, as the FDIC has claimed, when his office completes the two audits they are currently working on regarding FDIC's handling of major cybersecurity incidences in the coming weeks. I also hope that the IG's office can shed some light on the reasons why the office of the Chief Information Officer and the FDIC failed to inform Congress of these major incidences within the 7-day time frame required by the guidance from the Office of Management and Budget and that issued in the late October 2015.    I believe that FDIC has already taken some positive steps in responding to the recent data breaches, phasing out the use of removable media, for instance. I encourage them to continue to ensure that sensitive data is not intentionally or inadvertently breached, but I would also request that the new CIO, Mr. Lawrence Gross, who is testifying with us today, to keep Congress appropriately and fully informed in a timely manner when major cybersecurity incidences do occur.    I thank you, Mr. Chairman, and my time's expired. I yield back.</t>
   </si>
   <si>
@@ -103,9 +91,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Gibson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gross received his bachelor's degree in information systems management from the University of Maryland, University College, and he received his CIO certification from the National Defense University.    I now recognize Mr. Gibson for five minutes to present his testimony.    Mr. Gibson. Thank you, sir.    Chairman Smith, Ranking Member Johnson, Chairman Loudermilk, Ranking Member Beyer, and Members of the Subcommittee, my name is Fred Gibson, and I'm the acting Inspector General of the Federal Deposit Insurance Corporation. Thank you for the invitation to speak with the Subcommittee today regarding recent cybersecurity incidents at the Federal Deposit Insurance Corporation.    The Federal Government has seen a marked increase in the number of information security incidents affecting the integrity, confidentiality, and availability of government information, systems, and services. The charter for this hearing is to address two specific security interests and concerns that this Committee has regarding the FDIC's cybersecurity posture.    The FDIC's Office of Inspector General carries out two primary functions. The first is to audit and evaluate the FDIC's programs and operations, including controls designed to safeguard the Corporation's data and address and report breaches when they occur. The second function is to investigate suspected criminal activity, including breach incidents where case-specific facts lead us to believe that a crime may have occurred.    With respect to our first role, we are currently conducting two audits pertinent to the Committee's concerns that we anticipate will be completed in the near future. The first examines the FDIC's process for identifying and reporting major security incidents, as required by applicable federal law and related guidance. The second audit addresses the FDIC's controls for mitigating the risk of an unauthorized release of sensitive information submitted by systemically important financial institutions.    As you are aware, on February 19, 2016, during the planning phase of the first of these audits, we issued a memorandum to the FDIC's Chief Information Officer regarding a specific security incident which we believe warranted Congressional reporting. In the memorandum the OIG concluded that the Corporation was required under the Federal Information Security Modernization Act of 2014 and related guidance issued by the Office of Management and Budget--and that's OMB Memorandum 16-03--to report the security breach as a major incident to the appropriate Congressional committees. Ultimately, the FDIC reported the major incident to this Committee, which led ultimately to our testimony today.    With respect to our criminal investigative function, the FDIC OIG participates as a non-voting member on the FDIC's Data Breach Management Team, or DBMT, for situational awareness purposes. The DBMT, as its name implies, reviews data breach incidents. Where the facts of a particular incident, which we learn through our participation in the DBMT or from other sources, appear to point to a crime having been committed, we open an investigation. If the results of our investigation warrant, we make referrals to the Department of Justice. I can confirm the existence of one criminal investigation arising out of the incidents that formed the basis for today's hearing. However, that case is open. It's in a pre-indictment phase, which limits my ability to discuss it directly.    Nevertheless, I hope to be able to provide you with the information that you need to conduct your oversight activities with regard to these issues, and I look forward to answering the questions that the Committee has. Thank you very much.</t>
   </si>
   <si>
@@ -265,9 +250,6 @@
     <t>412309</t>
   </si>
   <si>
-    <t>Bill Posey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Posey. Thank you very much, Mr. Chairman.</t>
   </si>
   <si>
@@ -295,9 +277,6 @@
     <t>400245</t>
   </si>
   <si>
-    <t>Zoe Lofgren</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lofgren. Thank you, Mr. Chairman.    I understand from your testimony that in some instances the Data Breach Management Team recommends that individuals or financial institutions be notified of the breach of personally identifiable information and then credit monitoring can be offered and that that has not been done in this case or in the five other major breaches. Mr. Gross, can you explain why that hasn't happened, what was the thinking here, and are individuals adequately protected without this credit monitoring opportunity?</t>
   </si>
   <si>
@@ -332,9 +311,6 @@
   </si>
   <si>
     <t>412674</t>
-  </si>
-  <si>
-    <t>Darin LaHood</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. LaHood. Thank you, Mr. Chairman. And I want to thank the witnesses for being here today.    I would just say at the outset, it is troubling to me to hear your response to Mr. Beyer's questions, almost a dismissive nature of these breaches and kind of the nonchalant answers that you've given, particularly with the backdrop of cyber attacks on this country.    We hear every week in this Committee about the cybersecurity and how, at the highest levels of our government and in the private sector, computers are compromised every single day. And you look at--whether it's Chinese entities or Russian mob or domestic enterprises in the United States, I don't think anybody has any confidence that we have this under control. And it leads to a lot of uncertainty about how we tackle this issue.    And so when I hear about an agency, the FDIC, and the information that you control, it's concerning to me that you don't highlight this as an important breach and further investigation to find out what's at stake here. That's really concerning to me to hear that today.    Let me ask some specific questions here. Mr. Gross, in your opening statement you state that the downloading of the personal identifiable information in all the breaches FDIC reported to Congress was ``inadvertent'' and ``non-adversarial.'' Is that accurate?</t>
@@ -1027,11 +1003,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1053,11 +1027,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1077,13 +1049,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1105,11 +1075,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1129,13 +1097,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1157,11 +1123,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1181,13 +1145,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1209,11 +1171,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1235,11 +1195,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1259,13 +1217,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1287,11 +1243,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1313,11 +1267,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1339,11 +1291,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1365,11 +1315,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1391,11 +1339,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1417,11 +1363,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1443,11 +1387,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1469,11 +1411,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1493,13 +1433,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1521,11 +1459,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1545,13 +1481,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1573,11 +1507,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1599,11 +1531,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1625,11 +1555,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1651,11 +1579,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1677,11 +1603,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1703,11 +1627,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1729,11 +1651,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1755,11 +1675,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1781,11 +1699,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1807,11 +1723,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1833,11 +1747,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1859,11 +1771,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1883,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1911,11 +1819,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1935,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1963,11 +1867,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1987,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2015,11 +1915,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2039,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2067,11 +1963,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2093,11 +1987,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2119,11 +2011,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2145,11 +2035,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2171,11 +2059,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2197,11 +2083,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2223,11 +2107,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2249,11 +2131,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2273,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2299,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2325,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2351,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2377,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2403,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2429,13 +2297,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2455,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2481,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2507,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2533,13 +2393,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2559,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2587,11 +2443,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2611,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>82</v>
-      </c>
-      <c r="G63" t="s">
-        <v>83</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2637,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>28</v>
-      </c>
-      <c r="G64" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2663,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>82</v>
-      </c>
-      <c r="G65" t="s">
-        <v>83</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2689,13 +2537,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2715,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
+        <v>77</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
         <v>82</v>
-      </c>
-      <c r="G67" t="s">
-        <v>83</v>
-      </c>
-      <c r="H67" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2741,13 +2585,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
-      </c>
-      <c r="G68" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2767,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
-      </c>
-      <c r="G69" t="s">
-        <v>83</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2795,11 +2635,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2819,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>92</v>
-      </c>
-      <c r="G71" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2845,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>92</v>
-      </c>
-      <c r="G72" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2871,13 +2705,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>92</v>
-      </c>
-      <c r="G73" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2897,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>92</v>
-      </c>
-      <c r="G74" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2923,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>92</v>
-      </c>
-      <c r="G75" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2949,13 +2777,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
+        <v>86</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
         <v>92</v>
-      </c>
-      <c r="G76" t="s">
-        <v>93</v>
-      </c>
-      <c r="H76" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2975,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>92</v>
-      </c>
-      <c r="G77" t="s">
+        <v>86</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
         <v>93</v>
-      </c>
-      <c r="H77" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3001,13 +2825,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>92</v>
-      </c>
-      <c r="G78" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3027,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>92</v>
-      </c>
-      <c r="G79" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3053,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>92</v>
-      </c>
-      <c r="G80" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3081,11 +2899,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3105,13 +2921,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>105</v>
-      </c>
-      <c r="G82" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3131,13 +2945,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>105</v>
-      </c>
-      <c r="G83" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3157,13 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>105</v>
-      </c>
-      <c r="G84" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3183,13 +2993,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>105</v>
-      </c>
-      <c r="G85" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3209,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>105</v>
-      </c>
-      <c r="G86" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3235,13 +3041,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>28</v>
-      </c>
-      <c r="G87" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3261,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
+        <v>98</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
         <v>105</v>
-      </c>
-      <c r="G88" t="s">
-        <v>106</v>
-      </c>
-      <c r="H88" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3287,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>28</v>
-      </c>
-      <c r="G89" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3313,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>105</v>
-      </c>
-      <c r="G90" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3339,13 +3137,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>105</v>
-      </c>
-      <c r="G91" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3365,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>105</v>
-      </c>
-      <c r="G92" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3391,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>105</v>
-      </c>
-      <c r="G93" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3417,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>105</v>
-      </c>
-      <c r="G94" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3443,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>28</v>
-      </c>
-      <c r="G95" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3469,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>105</v>
-      </c>
-      <c r="G96" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3495,13 +3281,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>28</v>
-      </c>
-      <c r="G97" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3521,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>105</v>
-      </c>
-      <c r="G98" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3549,11 +3331,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3575,11 +3355,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3601,11 +3379,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3627,11 +3403,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3653,11 +3427,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3679,11 +3451,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3705,11 +3475,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3731,11 +3499,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3757,11 +3523,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3783,11 +3547,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3809,11 +3571,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3835,11 +3595,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3861,11 +3619,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3887,11 +3643,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3913,11 +3667,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3939,11 +3691,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3965,11 +3715,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3991,11 +3739,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4017,11 +3763,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4041,13 +3785,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>28</v>
-      </c>
-      <c r="G118" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4069,11 +3811,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4093,13 +3833,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>28</v>
-      </c>
-      <c r="G120" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4121,11 +3859,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4147,11 +3883,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4173,11 +3907,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>12</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4197,13 +3929,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>28</v>
-      </c>
-      <c r="G124" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4225,11 +3955,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4249,13 +3977,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>28</v>
-      </c>
-      <c r="G126" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4277,11 +4003,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4301,13 +4025,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>28</v>
-      </c>
-      <c r="G128" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4329,11 +4051,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4353,13 +4073,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>28</v>
-      </c>
-      <c r="G130" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4381,11 +4099,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4407,11 +4123,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4431,13 +4145,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>28</v>
-      </c>
-      <c r="G133" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4459,11 +4171,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4483,13 +4193,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>28</v>
-      </c>
-      <c r="G135" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4511,11 +4219,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4535,13 +4241,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>28</v>
-      </c>
-      <c r="G137" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4563,11 +4267,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4587,13 +4289,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>28</v>
-      </c>
-      <c r="G139" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4615,11 +4315,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4639,13 +4337,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>28</v>
-      </c>
-      <c r="G141" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4667,11 +4363,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4691,13 +4385,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>28</v>
-      </c>
-      <c r="G143" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4719,11 +4411,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4745,11 +4435,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4771,11 +4459,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>12</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4795,13 +4481,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>28</v>
-      </c>
-      <c r="G147" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4823,11 +4507,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4847,13 +4529,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>28</v>
-      </c>
-      <c r="G149" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4875,11 +4555,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4901,11 +4579,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4925,13 +4601,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>28</v>
-      </c>
-      <c r="G152" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4953,11 +4627,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4979,11 +4651,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5005,11 +4675,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5031,11 +4699,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5057,11 +4723,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5083,11 +4747,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>12</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5109,11 +4771,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5135,11 +4795,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5161,11 +4819,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5187,11 +4843,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>12</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5211,13 +4865,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>15</v>
-      </c>
-      <c r="G163" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5237,13 +4889,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>28</v>
-      </c>
-      <c r="G164" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5263,13 +4913,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>15</v>
-      </c>
-      <c r="G165" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5289,13 +4937,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>28</v>
-      </c>
-      <c r="G166" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5315,13 +4961,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>15</v>
-      </c>
-      <c r="G167" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5341,13 +4985,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>15</v>
-      </c>
-      <c r="G168" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5367,13 +5009,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>15</v>
-      </c>
-      <c r="G169" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5393,13 +5033,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>15</v>
-      </c>
-      <c r="G170" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5419,13 +5057,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>15</v>
-      </c>
-      <c r="G171" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5445,13 +5081,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>15</v>
-      </c>
-      <c r="G172" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5471,13 +5105,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>15</v>
-      </c>
-      <c r="G173" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5497,13 +5129,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>15</v>
-      </c>
-      <c r="G174" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5523,13 +5153,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>15</v>
-      </c>
-      <c r="G175" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5549,13 +5177,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>15</v>
-      </c>
-      <c r="G176" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5575,13 +5201,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>15</v>
-      </c>
-      <c r="G177" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5601,13 +5225,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>15</v>
-      </c>
-      <c r="G178" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5627,13 +5249,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>15</v>
-      </c>
-      <c r="G179" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5653,13 +5273,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>15</v>
-      </c>
-      <c r="G180" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5679,13 +5297,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>15</v>
-      </c>
-      <c r="G181" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5705,13 +5321,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>15</v>
-      </c>
-      <c r="G182" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5733,11 +5347,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>12</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20874.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20874.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412624</t>
   </si>
   <si>
+    <t>Loudermilk</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Loudermilk. The Subcommittee on Oversight will come to order.    Without objection, the Chair is authorized to declare a recess of the Subcommittee at any time.    Welcome to today's hearing entitled ``FDIC Data Breaches: Can Americans Trust That Their Private Banking Information is Secure?''    I recognize myself for five minutes for an opening statement.    Good morning. We're here today to learn more about cybersecurity breaches at the Federal Deposit Insurance Corporation. As a former information systems technology company owner for over 20 years, I know firsthand the importance of safeguarding sensitive information and private customer data. Regrettably, the American people have good reason to question whether their private banking information is properly secured by the FDIC.    The FDIC is an independent agency established by Congress, with the mission ``to maintain stability and public confidence in the nation's financial system.'' Unfortunately, the FDIC is failing to live up to its mission of maintaining public confidence in the Nation's financial system because the Agency is failing to safeguard private banking information for millions of Americans who rely on FDIC.    During the Committee's current investigation, it has become clear that FDIC has a long history of cybersecurity incidents. According to information obtained by the Committee, in 2011, a foreign government hacked into the workstations of the former FDIC Chairman and other senior officials. It appears that this entity had access to senior officials' workstations for at least one year before the FDIC took remedial action.    More recently, in letters dated February 26, 2016, and March 18, 2016, FDIC notified the Science Committee of two major security incidents. This notification to the Committee was required in accordance with the Federal Information Security Modernization Act of 2014, otherwise known as FISMA, and Office of Management and Budget guidelines that require executive branch departments and agencies to report major security incidents to Congress within seven days.    The security breach reported in FDIC's February 26 letter to the Committee involved an FDIC employee who copied sensitive personally identifiable information, or PII, over 10,000 individuals onto a portable storage device prior to separating from employment at the FDIC. The employee also downloaded suspicious activity reports, bank currency transaction reports, customer data reports and a small subset of personal work and tax files. This security incident is particularly troublesome, given that the FDIC did not ultimately recover the portable storage device from the former employee until nearly two months after the device was removed from FDIC premises.    Further, according to the information obtained by the Committee, the FDIC did not report the incident to Congress within the seven-day time period as required by FISMA. In fact, FDIC waited for over four months to report the incident to Congress and only did so after being prompted by the FDIC Office of Inspector General.    Just as troubling, FDIC continues to maintain that the employee ``accidently'' copied sensitive and proprietary information to a portable storage device, despite the fact that the employee initially told the agency that she ``would never do such a thing,'' and even denied ever owning a portable storage device. Ultimately, she retained legal counsel, who engaged in protracted negotiations with the agency for the return of the device.    The second security breach reported to the Committee was on March 18, 2016, involved a disgruntled FDIC employee who obtained sensitive data for over 44,000 individuals prior to separating from employment at the agency. When the employee left the FDIC on February 26, 2016, the employee took the storage device from the premises. Upon learning of the incident three days later, FDIC personnel worked to recover the device. The device was ultimately recovered on March 1, 2016. According to the FDIC, this was just another case of an employee ``accidently'' leaving the agency with sensitive information.    This week, FDIC retroactively reported five additional major breaches to the Committee. In one of those instances, an employee retired from FDIC and took three portable storage devices containing over 49,000 individuals' personal data. In total, over 160,000 individuals have recently been a victim of having their personal information leave the FDIC by ``accident.'' To date, FDIC has failed to notify any of those individuals that their private information may have been compromised.    According to the FDIC, none of the 160,000 individuals has anything to worry about because all of the FDIC employees who improperly walked out of the agency with sensitive information were required to sign affidavits stating the information was not disseminated. At best, this is a misleading statement because apparently all employees who are separating from the FDIC are generally required to sign an exit document attesting that they have not removed any FDIC materials from the premises. In the recent breaches reported to this Committee, all employees who improperly took the data should have already signed exit documents before ever leaving the agency.    It is Congress's responsibility to shine a light on FDIC's history of cybersecurity breaches. The Committee will continue its oversight of FDIC failures to secure Americans' sensitive information from apparent foreign entities and disgruntled FDIC employees.    I thank the witnesses for being here today and sincerely hope that we are able to get answers from the FDIC here this morning.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412657</t>
   </si>
   <si>
+    <t>Beyer</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Chairman Loudermilk, and I appreciate your extensive detailing of these breaches.    Defending against cyber threats is a persistent and evolving battle, and the cyber hazards that confront the public and private sectors come in various forms. Hackers can and have wreaked havoc on Hollywood studios, global financial institutions, retail outlets, and public agencies alike, and no one seems immune from the various cyber threats that touch virtually everyone.    Please forgive a certain amount of redundancy in my statement. It's important that we have both parties on record here.    In case of the Federal Deposit Insurance Corporation, they suffered from seven major cyber incidents in the past 7 months, and these breaches include plugging removable media such as a USB drive into an FDIC computer and removing thousands of sensitive financial and other records from the agency as employees walked out the door. We'll be focusing on two of these breaches today, as well as the FDIC's cybersecurity practices.    I'm glad the FDIC has installed new software that allowed them to identify these recent breaches and respond to them. Without that technology, known as data loss prevention tool, these incidents, whether inadvertent or intentional, would have gone unnoticed and unaddressed, and we in Congress would have remained uninformed. And I believe the FDIC Chairman has taken some positive steps in the wake of these breaches, phasing out the use of removable media such as flash drives and CDs that pose increased security risks.    However, I, along with our Chairman, do have questions about why there was such a long delay in notifying Congress about major cyber incidents, particularly the one that occurred last October and was not reported to Congress until February 26, 2016. And in that instance, it took a memo from the FDIC Inspector General's Office to the FDIC CIO reminding the agency that they had an obligation to report the incident to Congress.    I would add that the IG was not the only one suggesting the FDIC notify Congress of the incident. It's my understanding that other FDIC employees had also recommended reporting this to Congress earlier.    In addition, I believe that the new OMB guidance on federal information security and privacy management requirements, as detailed in the OMB memo 16-03 last October, is very clear. If it takes 8 hours or more to recover sensitive data that comprises 10,000 or more records or affects 10,000 or more people, it is considered a major cyber incident.    Under these guidelines, once an agency is aware that a breach meets that criteria, the incident should be considered a major breach and must be reported to Congress within 7 days. This did not happen in either of the two cases this hearing will focus on or the other five that the FDIC just reported to the Committee this week, and I'm still unclear why.    In the October incident, the breach included records from eight banks, more than 40,000 individuals, and 30,000 entities, including the sensitive bank currency transaction reports and Social Security numbers. Despite the OMB requirement that agencies inform Congress of major incidents within 7 days, FDIC notified Congress nearly 3 months after it had enough data to determine that this was a major breach.    I hope that Mr. Gross, the Chief Information Officer at FDIC, can help explain FDIC's decision to delay notifying Congress in that October incident, and I hope also that you'll be able to help us understand the agency's characterization of the incident, which appears to be at odds with some of the information obtained by the Committee. I know the Inspector General has looked at the October incident and the FDIC's response, so I look forward to Mr. Gibson's testimony as well.    As a business owner, we have a very important responsibility to protect our customer data, which includes Social Security numbers, cell phones, emails, personal addresses, and we do all we can to protect them, especially when an employee leaves, because we know that this has value to the employee in a different role. And we're just a business. We're not the government controlling these really sensitive government records. So this is a very important issue.    And, Mr. Gross, I understand you just arrived at the FDIC in November, and the CIO's office has suffered from a lack of consistent leadership. You're the fourth CIO in the last four years. I hope that you'll be able to bring some stability to this office, and equally important is I hope that you'll help us establish a solid foundation of reliability and openness with Congress and that you'll strive to do that as well.    So thank you both for being with us today, and we look forward to the questioning.    Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Mr. Chairman. And I appreciate both your comments and the Ranking Member's comments as well.    The recent cybersecurity breaches experienced by the FDIC date back to October 2015 and compromise nearly 160,000 individuals' sensitive information or personally identifiable information. The number of individuals whose information was compromised by the agency's poor cybersecurity posture could be much higher. The breaches reported to Congress represent only those that the agency itself called ``major.'' In reality, the FDIC likely has experienced additional breaches deemed insufficient by the agency to warrant reporting to Congress.    On April 8, 2016, the Committee sent a letter to the FDIC about a February 2016 cyber breach. In that case, more than 44,000 individuals' sensitive information was breached. Less than two weeks later, the Committee sent an additional letter to the FDIC concerning an earlier breach in October 2015, which compromised more than 10,000 individuals' sensitive information. The Committee sent the additional letter to the FDIC because the FDIC withheld reporting the breach to Congress for more than four months. In fact, the FDIC only reported the breach once the Office of Inspector General urged it to do so.    The FDIC's attempts to shield information from Congress did not end with its hesitation to report the significant October breach. The Committee has encountered a pattern of obstruction from the FDIC when responding to Committee requests.    In the FDIC's response to the Committee's letters, the agency initially produced documents extensively redacted for information the agency deemed to be confidential. These redactions included public information, such as the names of senior-level agency employees, whose identities were already known to the Committee.    The FDIC failed to provide statutory authority or a valid privilege for redacting the information. Still, the agency resisted the Committee's request for unredacted documents until faced with the threat of the Committee's use of the compulsory process to obtain the information.    Additionally, the Committee learned that the agency actively obstructed the Committee's ongoing investigation by limiting the scope of documents produced in response to the Committee's requests. The FDIC responded to the Committee's second letter and certified that it produced all responsive documents. However, subsequent discussions with the Office of Inspector General indicated that responsive documents were withheld by the agency.    Upon learning of the agency's active obstruction, the Committee wrote to the Office of Inspector General to request these documents. If not for the Office of Inspector General's openness and transparency with the Committee, we would not have been aware of the Agency's attempts to avoid providing a full and complete response to the Committee.    The FDIC's repeated efforts to conceal information from Congress are inexcusable. They raise significant questions about whether the Agency actively attempts to hide potentially incriminating information from Congress. As an agency that has faced repeated security breaches, it should focus its resources on reforming its internal cybersecurity mechanisms instead of engaging in efforts to conceal information from this Committee.    The Committee will continue to investigate the shortfalls in the FDIC's cybersecurity posture and why the Agency continues to withhold certain information from Congress and this Committee. We also will hear what measures the Agency should take to remediate the damage to the tens of thousands of Americans' whose information was compromised.    So, Mr. Chairman, we have a lot to learn this morning and look forward to the testimony of our two witnesses, and I yield back.</t>
   </si>
   <si>
@@ -79,6 +100,12 @@
     <t>412199</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Johnson. Thank you very much, Chairman Loudermilk, and thanks to you, our witnesses, for being here today.    All data breaches that expose sensitive personal information should be taken very seriously. In today's digital age, our sensitive personal data is everywhere. When we swipe our credit cards at the grocery store, renew our driver's license at the Department of Motor Vehicles and passports at the Department of State, or visit the emergency room at the local hospital or the bank around the corner, our sensitive, personal, and financial data is processed, stored, and entrusted to those entities to safeguard it and ensure that it is not inadvertently breached or intentionally stolen.    But that has happened seven times in the past 7 months in major cyber breaches at the Federal Deposit Insurance Corporation. None of these breaches were the result of sophisticated hackers, foreign adversaries, or cyber criminals. And those that downloaded this data, including Social Security numbers and suspicious activity reports, did not use high-tech digital tools. They simply plugged in their thumb drives and other removable media to their FDIC workstations in that office and downloaded sensitive, personal, and financial data onto their personal storage devices. These actions jeopardized the data security of thousands of individuals, multiple banks, and potentially criminal investigations.    In virtually every--each of these seven instances the FDIC has said the sensitive data was inadvertently downloaded and that there was no malicious intent. In all of these cases the FDIC was able to recover the data, and the former FDIC employees signed affidavits saying they had not shared the data with others.    However, in at least one case, according to FDIC's own records, a former employee who downloaded such data was evasive about her actions and not cooperative when initially confronted by FDIC staff. Some FDIC employees also suggest that it was highly improbable that this former employee's actions were accidental.    In addition, this former employee is now working for a U.S. subsidiary of a non-U.S. financial services company, which raises additional concerns. I would remind FDIC that in 2013 an Inspector General review of another much more serious cyber accident at the agency resulted in one senior official in the CIO's office leaving the agency and another being demoted.    My understanding is that this response by these former officials to both the Chairman of the FDIC and the IG's office and the Government Accountability Office lacked candor in both of their descriptions of the extent of this penetration and potential consequences to the agency.    I hope IG's office will be able to clarify whether or not all of the recent data breaches were inadvertent, as the FDIC has claimed, when his office completes the two audits they are currently working on regarding FDIC's handling of major cybersecurity incidences in the coming weeks. I also hope that the IG's office can shed some light on the reasons why the office of the Chief Information Officer and the FDIC failed to inform Congress of these major incidences within the 7-day time frame required by the guidance from the Office of Management and Budget and that issued in the late October 2015.    I believe that FDIC has already taken some positive steps in responding to the recent data breaches, phasing out the use of removable media, for instance. I encourage them to continue to ensure that sensitive data is not intentionally or inadvertently breached, but I would also request that the new CIO, Mr. Lawrence Gross, who is testifying with us today, to keep Congress appropriately and fully informed in a timely manner when major cybersecurity incidences do occur.    I thank you, Mr. Chairman, and my time's expired. I yield back.</t>
   </si>
   <si>
@@ -91,6 +118,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Gibson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gross received his bachelor's degree in information systems management from the University of Maryland, University College, and he received his CIO certification from the National Defense University.    I now recognize Mr. Gibson for five minutes to present his testimony.    Mr. Gibson. Thank you, sir.    Chairman Smith, Ranking Member Johnson, Chairman Loudermilk, Ranking Member Beyer, and Members of the Subcommittee, my name is Fred Gibson, and I'm the acting Inspector General of the Federal Deposit Insurance Corporation. Thank you for the invitation to speak with the Subcommittee today regarding recent cybersecurity incidents at the Federal Deposit Insurance Corporation.    The Federal Government has seen a marked increase in the number of information security incidents affecting the integrity, confidentiality, and availability of government information, systems, and services. The charter for this hearing is to address two specific security interests and concerns that this Committee has regarding the FDIC's cybersecurity posture.    The FDIC's Office of Inspector General carries out two primary functions. The first is to audit and evaluate the FDIC's programs and operations, including controls designed to safeguard the Corporation's data and address and report breaches when they occur. The second function is to investigate suspected criminal activity, including breach incidents where case-specific facts lead us to believe that a crime may have occurred.    With respect to our first role, we are currently conducting two audits pertinent to the Committee's concerns that we anticipate will be completed in the near future. The first examines the FDIC's process for identifying and reporting major security incidents, as required by applicable federal law and related guidance. The second audit addresses the FDIC's controls for mitigating the risk of an unauthorized release of sensitive information submitted by systemically important financial institutions.    As you are aware, on February 19, 2016, during the planning phase of the first of these audits, we issued a memorandum to the FDIC's Chief Information Officer regarding a specific security incident which we believe warranted Congressional reporting. In the memorandum the OIG concluded that the Corporation was required under the Federal Information Security Modernization Act of 2014 and related guidance issued by the Office of Management and Budget--and that's OMB Memorandum 16-03--to report the security breach as a major incident to the appropriate Congressional committees. Ultimately, the FDIC reported the major incident to this Committee, which led ultimately to our testimony today.    With respect to our criminal investigative function, the FDIC OIG participates as a non-voting member on the FDIC's Data Breach Management Team, or DBMT, for situational awareness purposes. The DBMT, as its name implies, reviews data breach incidents. Where the facts of a particular incident, which we learn through our participation in the DBMT or from other sources, appear to point to a crime having been committed, we open an investigation. If the results of our investigation warrant, we make referrals to the Department of Justice. I can confirm the existence of one criminal investigation arising out of the incidents that formed the basis for today's hearing. However, that case is open. It's in a pre-indictment phase, which limits my ability to discuss it directly.    Nevertheless, I hope to be able to provide you with the information that you need to conduct your oversight activities with regard to these issues, and I look forward to answering the questions that the Committee has. Thank you very much.</t>
   </si>
   <si>
@@ -250,6 +280,12 @@
     <t>412309</t>
   </si>
   <si>
+    <t>Posey</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Posey. Thank you very much, Mr. Chairman.</t>
   </si>
   <si>
@@ -277,6 +313,12 @@
     <t>400245</t>
   </si>
   <si>
+    <t>Lofgren</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Lofgren. Thank you, Mr. Chairman.    I understand from your testimony that in some instances the Data Breach Management Team recommends that individuals or financial institutions be notified of the breach of personally identifiable information and then credit monitoring can be offered and that that has not been done in this case or in the five other major breaches. Mr. Gross, can you explain why that hasn't happened, what was the thinking here, and are individuals adequately protected without this credit monitoring opportunity?</t>
   </si>
   <si>
@@ -311,6 +353,12 @@
   </si>
   <si>
     <t>412674</t>
+  </si>
+  <si>
+    <t>LaHood</t>
+  </si>
+  <si>
+    <t>Darin</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. LaHood. Thank you, Mr. Chairman. And I want to thank the witnesses for being here today.    I would just say at the outset, it is troubling to me to hear your response to Mr. Beyer's questions, almost a dismissive nature of these breaches and kind of the nonchalant answers that you've given, particularly with the backdrop of cyber attacks on this country.    We hear every week in this Committee about the cybersecurity and how, at the highest levels of our government and in the private sector, computers are compromised every single day. And you look at--whether it's Chinese entities or Russian mob or domestic enterprises in the United States, I don't think anybody has any confidence that we have this under control. And it leads to a lot of uncertainty about how we tackle this issue.    And so when I hear about an agency, the FDIC, and the information that you control, it's concerning to me that you don't highlight this as an important breach and further investigation to find out what's at stake here. That's really concerning to me to hear that today.    Let me ask some specific questions here. Mr. Gross, in your opening statement you state that the downloading of the personal identifiable information in all the breaches FDIC reported to Congress was ``inadvertent'' and ``non-adversarial.'' Is that accurate?</t>
@@ -953,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -961,7 +1009,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -983,4373 +1031,5224 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>18</v>
+      </c>
       <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
       <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>18</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>18</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G59" t="s">
+        <v>18</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>18</v>
+      </c>
       <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s">
+        <v>18</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>77</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G63" t="s">
+        <v>88</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G64" t="s">
+        <v>34</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>77</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G65" t="s">
+        <v>88</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G66" t="s">
+        <v>34</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>77</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G67" t="s">
+        <v>88</v>
+      </c>
       <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G68" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>77</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G69" t="s">
+        <v>88</v>
+      </c>
       <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>86</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G71" t="s">
+        <v>99</v>
+      </c>
       <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G72" t="s">
+        <v>99</v>
+      </c>
       <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>86</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G73" t="s">
+        <v>99</v>
+      </c>
       <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>86</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G74" t="s">
+        <v>99</v>
+      </c>
       <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>86</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G75" t="s">
+        <v>99</v>
+      </c>
       <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>86</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G76" t="s">
+        <v>99</v>
+      </c>
       <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>86</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G77" t="s">
+        <v>99</v>
+      </c>
       <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>86</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G78" t="s">
+        <v>99</v>
+      </c>
       <c r="H78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>86</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G79" t="s">
+        <v>99</v>
+      </c>
       <c r="H79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>86</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G80" t="s">
+        <v>99</v>
+      </c>
       <c r="H80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>98</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G82" t="s">
+        <v>113</v>
+      </c>
       <c r="H82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>98</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G83" t="s">
+        <v>113</v>
+      </c>
       <c r="H83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>98</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G84" t="s">
+        <v>113</v>
+      </c>
       <c r="H84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>98</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G85" t="s">
+        <v>113</v>
+      </c>
       <c r="H85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>98</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G86" t="s">
+        <v>113</v>
+      </c>
       <c r="H86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G87" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>98</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G88" t="s">
+        <v>113</v>
+      </c>
       <c r="H88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G89" t="s">
+        <v>34</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>98</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G90" t="s">
+        <v>113</v>
+      </c>
       <c r="H90" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>98</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G91" t="s">
+        <v>113</v>
+      </c>
       <c r="H91" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>98</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G92" t="s">
+        <v>113</v>
+      </c>
       <c r="H92" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>98</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G93" t="s">
+        <v>113</v>
+      </c>
       <c r="H93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>98</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G94" t="s">
+        <v>113</v>
+      </c>
       <c r="H94" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>24</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G95" t="s">
+        <v>34</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>98</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G96" t="s">
+        <v>113</v>
+      </c>
       <c r="H96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>24</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G97" t="s">
+        <v>34</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>98</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G98" t="s">
+        <v>113</v>
+      </c>
       <c r="H98" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
       <c r="H100" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
       <c r="H102" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
       <c r="H105" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
       <c r="H108" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
       <c r="H110" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
       <c r="H111" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
       <c r="H112" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
       <c r="H113" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
       <c r="H114" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
       <c r="H116" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>24</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G118" t="s">
+        <v>34</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
       <c r="H119" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>24</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G120" t="s">
+        <v>34</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
       <c r="H121" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
       <c r="H122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
       <c r="H123" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>24</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G124" t="s">
+        <v>34</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
       <c r="H125" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>24</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G126" t="s">
+        <v>34</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>13</v>
+      </c>
       <c r="H127" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>24</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G128" t="s">
+        <v>34</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
       <c r="H129" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>24</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G130" t="s">
+        <v>34</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>13</v>
+      </c>
       <c r="H131" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
       <c r="H132" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>24</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G133" t="s">
+        <v>34</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
       <c r="H134" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>24</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G135" t="s">
+        <v>34</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
       <c r="H136" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>24</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G137" t="s">
+        <v>34</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>13</v>
+      </c>
       <c r="H138" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>24</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G139" t="s">
+        <v>34</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
       <c r="H140" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>24</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G141" t="s">
+        <v>34</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
       <c r="H142" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>24</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G143" t="s">
+        <v>34</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
       <c r="H144" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>13</v>
+      </c>
       <c r="H145" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>13</v>
+      </c>
       <c r="H146" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>24</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G147" t="s">
+        <v>34</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
       <c r="H148" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I148" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>24</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G149" t="s">
+        <v>34</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>13</v>
+      </c>
       <c r="H150" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I150" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>13</v>
+      </c>
       <c r="H151" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>24</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G152" t="s">
+        <v>34</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G153" t="s">
+        <v>13</v>
+      </c>
       <c r="H153" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I153" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>13</v>
+      </c>
       <c r="H154" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G155" t="s">
+        <v>13</v>
+      </c>
       <c r="H155" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I155" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
       <c r="H156" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
       <c r="H157" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I157" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>11</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>13</v>
+      </c>
       <c r="H158" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I158" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
       <c r="H159" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G160" t="s">
+        <v>13</v>
+      </c>
       <c r="H160" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I160" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
       <c r="H161" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>11</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G162" t="s">
+        <v>13</v>
+      </c>
       <c r="H162" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I162" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>14</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G163" t="s">
+        <v>18</v>
+      </c>
       <c r="H163" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I163" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>24</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G164" t="s">
+        <v>34</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>14</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G165" t="s">
+        <v>18</v>
+      </c>
       <c r="H165" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I165" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>24</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G166" t="s">
+        <v>34</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>14</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G167" t="s">
+        <v>18</v>
+      </c>
       <c r="H167" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I167" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G168" t="s">
+        <v>18</v>
+      </c>
       <c r="H168" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I168" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>14</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G169" t="s">
+        <v>18</v>
+      </c>
       <c r="H169" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I169" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G170" t="s">
+        <v>18</v>
+      </c>
       <c r="H170" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I170" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>14</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G171" t="s">
+        <v>18</v>
+      </c>
       <c r="H171" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I171" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G172" t="s">
+        <v>18</v>
+      </c>
       <c r="H172" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I172" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>14</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G173" t="s">
+        <v>18</v>
+      </c>
       <c r="H173" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I173" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>14</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G174" t="s">
+        <v>18</v>
+      </c>
       <c r="H174" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I174" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>14</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G175" t="s">
+        <v>18</v>
+      </c>
       <c r="H175" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I175" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>14</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G176" t="s">
+        <v>18</v>
+      </c>
       <c r="H176" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I176" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G177" t="s">
+        <v>18</v>
+      </c>
       <c r="H177" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I177" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G178" t="s">
+        <v>18</v>
+      </c>
       <c r="H178" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I178" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G179" t="s">
+        <v>18</v>
+      </c>
       <c r="H179" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I179" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>14</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G180" t="s">
+        <v>18</v>
+      </c>
       <c r="H180" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I180" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>14</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G181" t="s">
+        <v>18</v>
+      </c>
       <c r="H181" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I181" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>14</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G182" t="s">
+        <v>18</v>
+      </c>
       <c r="H182" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I182" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>11</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G183" t="s">
+        <v>13</v>
+      </c>
       <c r="H183" t="s">
-        <v>196</v>
+        <v>14</v>
+      </c>
+      <c r="I183" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20874.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20874.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="217">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412624</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Loudermilk</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>412657</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Beyer</t>
   </si>
   <si>
@@ -83,6 +92,9 @@
   </si>
   <si>
     <t>400381</t>
+  </si>
+  <si>
+    <t>Ex Officio</t>
   </si>
   <si>
     <t>Smith</t>
@@ -1001,7 +1013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I183"/>
+  <dimension ref="A1:J183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,7 +1021,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,5221 +1046,5708 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" t="s">
-        <v>34</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" t="s">
-        <v>34</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H59" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I59" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H61" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G63" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
-      </c>
-      <c r="G64" t="s">
-        <v>34</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>38</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G65" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
-      </c>
-      <c r="G66" t="s">
-        <v>34</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G67" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I67" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
-      </c>
-      <c r="G68" t="s">
-        <v>34</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>38</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G69" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I69" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G71" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G72" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G73" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G74" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I74" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="J74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G75" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G76" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G77" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G78" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G79" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G80" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G82" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I82" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G83" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I83" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G84" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I84" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G85" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I85" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="J85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G86" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I86" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
-      </c>
-      <c r="G87" t="s">
-        <v>34</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>38</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G88" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I88" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
-      </c>
-      <c r="G89" t="s">
-        <v>34</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>38</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G90" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I90" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G91" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I91" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G92" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I92" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G93" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I93" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G94" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I94" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
-      </c>
-      <c r="G95" t="s">
-        <v>34</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>38</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G96" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I96" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
-      </c>
-      <c r="G97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>38</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G98" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I98" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I105" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I110" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J112" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I114" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
-      </c>
-      <c r="G118" t="s">
-        <v>34</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>38</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I119" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J119" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
-      </c>
-      <c r="G120" t="s">
-        <v>34</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>38</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I121" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J121" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I122" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J122" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I123" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J123" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
-      </c>
-      <c r="G124" t="s">
-        <v>34</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>38</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I125" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J125" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
-      </c>
-      <c r="G126" t="s">
-        <v>34</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>38</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I127" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J127" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
-      </c>
-      <c r="G128" t="s">
-        <v>34</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>38</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I129" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J129" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
-      </c>
-      <c r="G130" t="s">
-        <v>34</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>38</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I131" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J131" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I132" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J132" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
-      </c>
-      <c r="G133" t="s">
-        <v>34</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>38</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I134" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J134" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
-      </c>
-      <c r="G135" t="s">
-        <v>34</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>38</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
-      </c>
-      <c r="G137" t="s">
-        <v>34</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>38</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I138" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J138" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
-      </c>
-      <c r="G139" t="s">
-        <v>34</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>38</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I140" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J140" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
-      </c>
-      <c r="G141" t="s">
-        <v>34</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>38</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I142" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
-      </c>
-      <c r="G143" t="s">
-        <v>34</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>38</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I144" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J144" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I145" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J145" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I146" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J146" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
-      </c>
-      <c r="G147" t="s">
-        <v>34</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>38</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I148" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J148" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
-      </c>
-      <c r="G149" t="s">
-        <v>34</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>38</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I150" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J150" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I151" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J151" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
-      </c>
-      <c r="G152" t="s">
-        <v>34</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>38</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I153" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J153" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I154" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J154" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I155" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J155" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I156" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J156" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I157" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J157" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I158" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J158" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I159" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J159" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I160" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J160" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I161" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J161" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I162" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J162" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G163" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H163" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I163" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J163" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
-      </c>
-      <c r="G164" t="s">
-        <v>34</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>38</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G165" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H165" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I165" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J165" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
-      </c>
-      <c r="G166" t="s">
-        <v>34</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>38</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G167" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H167" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I167" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J167" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G168" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H168" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I168" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J168" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G169" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H169" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I169" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J169" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G170" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H170" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I170" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J170" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G171" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H171" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I171" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J171" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G172" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H172" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I172" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J172" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G173" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H173" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I173" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J173" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G174" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H174" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I174" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J174" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G175" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H175" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I175" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J175" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G176" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H176" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I176" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J176" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G177" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H177" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I177" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J177" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G178" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H178" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I178" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J178" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G179" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H179" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I179" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J179" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G180" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H180" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I180" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J180" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G181" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H181" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I181" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J181" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G182" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H182" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I182" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J182" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G183" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H183" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I183" t="s">
-        <v>212</v>
+        <v>16</v>
+      </c>
+      <c r="J183" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
